--- a/biology/Médecine/Johann_Friedrich_Cartheuser/Johann_Friedrich_Cartheuser.xlsx
+++ b/biology/Médecine/Johann_Friedrich_Cartheuser/Johann_Friedrich_Cartheuser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Friedrich Cartheuser, médecin allemand, né le 29 septembre 1704 à Hayn (royaume de Prusse), mort le 22 juin 1777 à Francfort-sur-l'Oder.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était professeur de chimie et de pathologie à Francfort-sur-l'Oder. Il réforma la pharmacie par ses savantes recherches sur la matière médicale.
 </t>
@@ -542,11 +556,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses principaux ouvrages sont :
 Elementa chemiae medicae, Halle, 1736 ;
-Fundamenta materiae medicae, Francfort, 1741 et 1749, traduits en français par Jean-Charles Desessartz, Paris, 1769. Dès 1755, toutefois, la Matière médicale, traduite du latin de M. J. Fr. Cartheuser, augmentée d'une table raisonnée et d'une introduction à la matière médicinale, Paris, Briasson, 4 vol. in-12, est disponible en français, sans que le traducteur n'en soit identifié[1].</t>
+Fundamenta materiae medicae, Francfort, 1741 et 1749, traduits en français par Jean-Charles Desessartz, Paris, 1769. Dès 1755, toutefois, la Matière médicale, traduite du latin de M. J. Fr. Cartheuser, augmentée d'une table raisonnée et d'une introduction à la matière médicinale, Paris, Briasson, 4 vol. in-12, est disponible en français, sans que le traducteur n'en soit identifié.</t>
         </is>
       </c>
     </row>
